--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2221008.473005264</v>
+        <v>2218463.286931978</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>306.510426886724</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>54.6312218570059</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
-        <v>328.4378163475063</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.6638564154457</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>83.32987208939466</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>239.0879882148234</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>98.72860659578222</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>49.94675160484169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.9962538432431</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611590423</v>
       </c>
     </row>
     <row r="41">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529.2861479534</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.323631012988</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.323631012988</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>774.5353784147437</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>363.5494736251362</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1915.885988017521</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>418.2614436197335</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.1098286224644</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>546.1098286224644</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>546.1098286224644</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>546.1098286224644</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>539.164327873261</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,13 +4580,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982761</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.1098286224644</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1505.175443665633</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.212926725222</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9472281184712</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>392.1589755202269</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2134747710235</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>372.166097047855</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>297.0690422295933</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771036</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904028</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2612.354404641854</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2612.977503049137</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2612.977503049137</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2612.977503049137</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2281.914615705567</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>2281.914615705567</v>
+        <v>1973.365536512648</v>
       </c>
       <c r="X8" t="n">
-        <v>2281.914615705567</v>
+        <v>1731.862518113836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1891.775283729755</v>
+        <v>1341.723186138024</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>823.6738367508469</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>1003.426399032394</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>775.436848134377</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1394.184733704551</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,16 +5589,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
         <v>1501.8401750111</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,16 +6598,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>119.290296770379</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>95.584050252739</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>119.2902967703794</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N39" t="n">
         <v>1344.266747951538</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7652,43 +7652,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>368.1017737596997</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>50.31370338866014</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>459.0422035634803</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012055</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267405044</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023549</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516056</v>
@@ -26323,34 +26323,34 @@
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752545</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481115</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630332</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.53656668275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682766</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="K4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682798</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287494.0895893828</v>
+        <v>-287494.0895893825</v>
       </c>
       <c r="C6" t="n">
-        <v>302473.789625162</v>
+        <v>302473.7896251621</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.983531368</v>
+        <v>146669.9835313679</v>
       </c>
       <c r="E6" t="n">
-        <v>-292671.4729961418</v>
+        <v>-292706.2109215775</v>
       </c>
       <c r="F6" t="n">
-        <v>478381.2183846644</v>
+        <v>478346.4804592284</v>
       </c>
       <c r="G6" t="n">
-        <v>478381.2183846646</v>
+        <v>478346.480459229</v>
       </c>
       <c r="H6" t="n">
-        <v>478381.2183846643</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="I6" t="n">
-        <v>478381.2183846644</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="J6" t="n">
-        <v>301957.9991920717</v>
+        <v>301923.2612666359</v>
       </c>
       <c r="K6" t="n">
-        <v>478381.2183846646</v>
+        <v>478346.480459229</v>
       </c>
       <c r="L6" t="n">
-        <v>478381.2183846644</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="M6" t="n">
-        <v>354172.7076766061</v>
+        <v>354137.9697511703</v>
       </c>
       <c r="N6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.480459229</v>
       </c>
       <c r="O6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.4804592284</v>
       </c>
       <c r="P6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.4804592291</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209783</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>107.273743134071</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>231.8917764795851</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>23.75498498155895</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>85.34635367328872</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>71.32301503874552</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>130.6431124636457</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>106.6372753043364</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>236.5762467317493</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-3.197455209038191e-12</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9244589488886</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330463</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>556.6870392399094</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>85.65119835996833</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>640.3526443257074</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>226.5827468655553</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317214</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060408</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
